--- a/compiled_data.xlsx
+++ b/compiled_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rufel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\DA\DA 11-11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D36BBB-59F5-4535-B376-8C2F4C1482B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD33D99-5C6D-4B68-A599-A461D9A76DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PACTOL" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="808">
   <si>
     <t>Date</t>
   </si>
@@ -2381,9 +2381,6 @@
   </si>
   <si>
     <t>10/23/2026</t>
-  </si>
-  <si>
-    <t>Class</t>
   </si>
   <si>
     <t>10/23/2027</t>
@@ -2848,15 +2845,15 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2879,7 +2876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45209</v>
       </c>
@@ -2902,7 +2899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45209</v>
       </c>
@@ -2925,7 +2922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45209</v>
       </c>
@@ -2948,7 +2945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45209</v>
       </c>
@@ -2971,7 +2968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45209</v>
       </c>
@@ -2994,7 +2991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45209</v>
       </c>
@@ -3017,7 +3014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45209</v>
       </c>
@@ -3040,7 +3037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45209</v>
       </c>
@@ -3063,7 +3060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45209</v>
       </c>
@@ -3086,7 +3083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45209</v>
       </c>
@@ -3109,7 +3106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45209</v>
       </c>
@@ -3132,7 +3129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45240</v>
       </c>
@@ -3155,7 +3152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45210</v>
       </c>
@@ -3178,7 +3175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45242</v>
       </c>
@@ -3201,7 +3198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45243</v>
       </c>
@@ -3224,7 +3221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45243</v>
       </c>
@@ -3247,7 +3244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45243</v>
       </c>
@@ -3270,7 +3267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45243</v>
       </c>
@@ -3293,7 +3290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45243</v>
       </c>
@@ -3316,7 +3313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45244</v>
       </c>
@@ -3339,7 +3336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45244</v>
       </c>
@@ -3362,7 +3359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45244</v>
       </c>
@@ -3385,7 +3382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45244</v>
       </c>
@@ -3408,7 +3405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45244</v>
       </c>
@@ -3431,7 +3428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45244</v>
       </c>
@@ -3454,7 +3451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45244</v>
       </c>
@@ -3477,7 +3474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45244</v>
       </c>
@@ -3500,7 +3497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45245</v>
       </c>
@@ -3523,7 +3520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45245</v>
       </c>
@@ -3546,7 +3543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45245</v>
       </c>
@@ -3569,7 +3566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45245</v>
       </c>
@@ -3592,7 +3589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45245</v>
       </c>
@@ -3615,7 +3612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45245</v>
       </c>
@@ -3638,7 +3635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45246</v>
       </c>
@@ -3661,7 +3658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45246</v>
       </c>
@@ -3684,7 +3681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45246</v>
       </c>
@@ -3707,7 +3704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45246</v>
       </c>
@@ -3730,7 +3727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45246</v>
       </c>
@@ -3753,7 +3750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45246</v>
       </c>
@@ -3776,7 +3773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45246</v>
       </c>
@@ -3799,7 +3796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45247</v>
       </c>
@@ -3822,7 +3819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45247</v>
       </c>
@@ -3845,7 +3842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45247</v>
       </c>
@@ -3868,7 +3865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45247</v>
       </c>
@@ -3891,7 +3888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45247</v>
       </c>
@@ -3914,7 +3911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45247</v>
       </c>
@@ -3937,7 +3934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45247</v>
       </c>
@@ -3960,7 +3957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45247</v>
       </c>
@@ -3983,7 +3980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45248</v>
       </c>
@@ -4006,7 +4003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45248</v>
       </c>
@@ -4029,7 +4026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45248</v>
       </c>
@@ -4052,7 +4049,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45248</v>
       </c>
@@ -4075,7 +4072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45248</v>
       </c>
@@ -4098,7 +4095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45249</v>
       </c>
@@ -4121,7 +4118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45249</v>
       </c>
@@ -4144,7 +4141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45249</v>
       </c>
@@ -4167,7 +4164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45249</v>
       </c>
@@ -4190,7 +4187,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45249</v>
       </c>
@@ -4213,7 +4210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45249</v>
       </c>
@@ -4236,7 +4233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45249</v>
       </c>
@@ -4259,7 +4256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45249</v>
       </c>
@@ -4282,7 +4279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45249</v>
       </c>
@@ -4305,7 +4302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45250</v>
       </c>
@@ -4328,7 +4325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45250</v>
       </c>
@@ -4351,7 +4348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45250</v>
       </c>
@@ -4374,7 +4371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45250</v>
       </c>
@@ -4397,7 +4394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45250</v>
       </c>
@@ -4420,7 +4417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45250</v>
       </c>
@@ -4443,7 +4440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45250</v>
       </c>
@@ -4466,7 +4463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45250</v>
       </c>
@@ -4489,7 +4486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45250</v>
       </c>
@@ -4512,7 +4509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45250</v>
       </c>
@@ -4535,7 +4532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45250</v>
       </c>
@@ -4558,7 +4555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45251</v>
       </c>
@@ -4581,7 +4578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45251</v>
       </c>
@@ -4604,7 +4601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45251</v>
       </c>
@@ -4627,7 +4624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45251</v>
       </c>
@@ -4650,7 +4647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45251</v>
       </c>
@@ -4673,7 +4670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45251</v>
       </c>
@@ -4696,7 +4693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45252</v>
       </c>
@@ -4719,7 +4716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45252</v>
       </c>
@@ -4742,7 +4739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45252</v>
       </c>
@@ -4765,7 +4762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45252</v>
       </c>
@@ -4788,7 +4785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45252</v>
       </c>
@@ -4811,7 +4808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45253</v>
       </c>
@@ -4834,7 +4831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45253</v>
       </c>
@@ -4867,17 +4864,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="H132" sqref="H132"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="H127" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4903,7 +4900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -4929,7 +4926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4955,7 +4952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -4981,7 +4978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -5007,7 +5004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -5033,7 +5030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -5059,7 +5056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -5085,7 +5082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -5111,7 +5108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -5137,7 +5134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -5163,7 +5160,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -5189,7 +5186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -5215,7 +5212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>155</v>
       </c>
@@ -5241,7 +5238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -5267,7 +5264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -5293,7 +5290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -5319,7 +5316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -5345,7 +5342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>171</v>
       </c>
@@ -5371,7 +5368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>174</v>
       </c>
@@ -5397,7 +5394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>178</v>
       </c>
@@ -5423,7 +5420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>180</v>
       </c>
@@ -5449,7 +5446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -5475,7 +5472,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>185</v>
       </c>
@@ -5501,7 +5498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>186</v>
       </c>
@@ -5527,7 +5524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>189</v>
       </c>
@@ -5553,7 +5550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -5579,7 +5576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>192</v>
       </c>
@@ -5605,7 +5602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>193</v>
       </c>
@@ -5631,7 +5628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>196</v>
       </c>
@@ -5657,7 +5654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>200</v>
       </c>
@@ -5683,7 +5680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>203</v>
       </c>
@@ -5709,7 +5706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>206</v>
       </c>
@@ -5735,7 +5732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>209</v>
       </c>
@@ -5761,7 +5758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>211</v>
       </c>
@@ -5787,7 +5784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>214</v>
       </c>
@@ -5813,7 +5810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>216</v>
       </c>
@@ -5839,7 +5836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>219</v>
       </c>
@@ -5865,7 +5862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>222</v>
       </c>
@@ -5891,7 +5888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>224</v>
       </c>
@@ -5917,7 +5914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -5943,7 +5940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>230</v>
       </c>
@@ -5969,7 +5966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>233</v>
       </c>
@@ -5995,7 +5992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>236</v>
       </c>
@@ -6021,7 +6018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>237</v>
       </c>
@@ -6047,7 +6044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>240</v>
       </c>
@@ -6073,7 +6070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>243</v>
       </c>
@@ -6099,7 +6096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>247</v>
       </c>
@@ -6125,7 +6122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>250</v>
       </c>
@@ -6151,7 +6148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>252</v>
       </c>
@@ -6177,7 +6174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>255</v>
       </c>
@@ -6203,7 +6200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>258</v>
       </c>
@@ -6229,7 +6226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>261</v>
       </c>
@@ -6255,7 +6252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>264</v>
       </c>
@@ -6281,7 +6278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>267</v>
       </c>
@@ -6307,7 +6304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>270</v>
       </c>
@@ -6333,7 +6330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>273</v>
       </c>
@@ -6359,7 +6356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>275</v>
       </c>
@@ -6385,7 +6382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>278</v>
       </c>
@@ -6411,7 +6408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>280</v>
       </c>
@@ -6437,7 +6434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>282</v>
       </c>
@@ -6463,7 +6460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>284</v>
       </c>
@@ -6489,7 +6486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>285</v>
       </c>
@@ -6515,7 +6512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>287</v>
       </c>
@@ -6541,7 +6538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>289</v>
       </c>
@@ -6567,7 +6564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>292</v>
       </c>
@@ -6593,7 +6590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>295</v>
       </c>
@@ -6619,7 +6616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>299</v>
       </c>
@@ -6645,7 +6642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>302</v>
       </c>
@@ -6671,7 +6668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>306</v>
       </c>
@@ -6697,7 +6694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>308</v>
       </c>
@@ -6723,7 +6720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>311</v>
       </c>
@@ -6749,7 +6746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>315</v>
       </c>
@@ -6775,7 +6772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>317</v>
       </c>
@@ -6801,7 +6798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>320</v>
       </c>
@@ -6827,7 +6824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>323</v>
       </c>
@@ -6853,7 +6850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>326</v>
       </c>
@@ -6879,7 +6876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>328</v>
       </c>
@@ -6905,7 +6902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>330</v>
       </c>
@@ -6931,7 +6928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>333</v>
       </c>
@@ -6957,7 +6954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>335</v>
       </c>
@@ -6983,7 +6980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>336</v>
       </c>
@@ -7009,7 +7006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>340</v>
       </c>
@@ -7035,7 +7032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>343</v>
       </c>
@@ -7061,7 +7058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>346</v>
       </c>
@@ -7087,7 +7084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>349</v>
       </c>
@@ -7113,7 +7110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>352</v>
       </c>
@@ -7139,7 +7136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>354</v>
       </c>
@@ -7165,7 +7162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>358</v>
       </c>
@@ -7191,7 +7188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>361</v>
       </c>
@@ -7217,7 +7214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>363</v>
       </c>
@@ -7243,7 +7240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>366</v>
       </c>
@@ -7269,7 +7266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>369</v>
       </c>
@@ -7295,7 +7292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>372</v>
       </c>
@@ -7321,7 +7318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>374</v>
       </c>
@@ -7347,7 +7344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>376</v>
       </c>
@@ -7373,7 +7370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>377</v>
       </c>
@@ -7399,7 +7396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>378</v>
       </c>
@@ -7425,7 +7422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>380</v>
       </c>
@@ -7451,7 +7448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>383</v>
       </c>
@@ -7477,7 +7474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>386</v>
       </c>
@@ -7503,7 +7500,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>388</v>
       </c>
@@ -7529,7 +7526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>390</v>
       </c>
@@ -7555,7 +7552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>392</v>
       </c>
@@ -7581,7 +7578,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>394</v>
       </c>
@@ -7607,7 +7604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>396</v>
       </c>
@@ -7633,7 +7630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>398</v>
       </c>
@@ -7659,7 +7656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>399</v>
       </c>
@@ -7685,7 +7682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>400</v>
       </c>
@@ -7711,7 +7708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>402</v>
       </c>
@@ -7737,7 +7734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>404</v>
       </c>
@@ -7763,7 +7760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>406</v>
       </c>
@@ -7789,7 +7786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>408</v>
       </c>
@@ -7815,7 +7812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>410</v>
       </c>
@@ -7841,7 +7838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>413</v>
       </c>
@@ -7867,7 +7864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>417</v>
       </c>
@@ -7893,7 +7890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>420</v>
       </c>
@@ -7919,7 +7916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>423</v>
       </c>
@@ -7945,7 +7942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>425</v>
       </c>
@@ -7971,7 +7968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>428</v>
       </c>
@@ -7997,7 +7994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>431</v>
       </c>
@@ -8023,7 +8020,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>434</v>
       </c>
@@ -8049,7 +8046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>437</v>
       </c>
@@ -8075,7 +8072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>439</v>
       </c>
@@ -8101,7 +8098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>442</v>
       </c>
@@ -8127,7 +8124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>444</v>
       </c>
@@ -8153,7 +8150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>446</v>
       </c>
@@ -8179,7 +8176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>450</v>
       </c>
@@ -8205,7 +8202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>452</v>
       </c>
@@ -8231,7 +8228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>455</v>
       </c>
@@ -8257,7 +8254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>458</v>
       </c>
@@ -8283,7 +8280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>461</v>
       </c>
@@ -8309,7 +8306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>464</v>
       </c>
@@ -8335,7 +8332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>467</v>
       </c>
@@ -8361,7 +8358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>471</v>
       </c>
@@ -8387,7 +8384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>475</v>
       </c>
@@ -8413,7 +8410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>478</v>
       </c>
@@ -8439,7 +8436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>481</v>
       </c>
@@ -8465,7 +8462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>485</v>
       </c>
@@ -8491,7 +8488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>488</v>
       </c>
@@ -8517,7 +8514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>490</v>
       </c>
@@ -8543,7 +8540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>492</v>
       </c>
@@ -8569,7 +8566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>496</v>
       </c>
@@ -8595,7 +8592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>499</v>
       </c>
@@ -8621,7 +8618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>500</v>
       </c>
@@ -8647,7 +8644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>501</v>
       </c>
@@ -8673,7 +8670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>503</v>
       </c>
@@ -8699,7 +8696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>505</v>
       </c>
@@ -8725,7 +8722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>508</v>
       </c>
@@ -8751,7 +8748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>509</v>
       </c>
@@ -8777,7 +8774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>511</v>
       </c>
@@ -8803,7 +8800,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>513</v>
       </c>
@@ -8829,7 +8826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>514</v>
       </c>
@@ -8855,7 +8852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>516</v>
       </c>
@@ -8881,7 +8878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>517</v>
       </c>
@@ -8907,7 +8904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>520</v>
       </c>
@@ -8933,7 +8930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>523</v>
       </c>
@@ -8959,7 +8956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>525</v>
       </c>
@@ -8985,7 +8982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>528</v>
       </c>
@@ -9011,7 +9008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>531</v>
       </c>
@@ -9037,7 +9034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>532</v>
       </c>
@@ -9063,7 +9060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>533</v>
       </c>
@@ -9089,7 +9086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>535</v>
       </c>
@@ -9115,7 +9112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>536</v>
       </c>
@@ -9141,7 +9138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>539</v>
       </c>
@@ -9167,7 +9164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>541</v>
       </c>
@@ -9203,23 +9200,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="I165" sqref="I165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9245,7 +9242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -9271,7 +9268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -9297,7 +9294,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -9323,7 +9320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -9349,7 +9346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -9375,7 +9372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -9401,7 +9398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -9427,7 +9424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -9453,7 +9450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -9479,7 +9476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -9505,7 +9502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>564</v>
       </c>
@@ -9531,7 +9528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>566</v>
       </c>
@@ -9557,7 +9554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>569</v>
       </c>
@@ -9583,7 +9580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>570</v>
       </c>
@@ -9609,7 +9606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>571</v>
       </c>
@@ -9635,7 +9632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>572</v>
       </c>
@@ -9661,7 +9658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>573</v>
       </c>
@@ -9687,7 +9684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>574</v>
       </c>
@@ -9713,7 +9710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>576</v>
       </c>
@@ -9739,7 +9736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>579</v>
       </c>
@@ -9765,7 +9762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>581</v>
       </c>
@@ -9791,7 +9788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>583</v>
       </c>
@@ -9817,7 +9814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>584</v>
       </c>
@@ -9843,7 +9840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>585</v>
       </c>
@@ -9869,7 +9866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>586</v>
       </c>
@@ -9895,7 +9892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>587</v>
       </c>
@@ -9921,7 +9918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>588</v>
       </c>
@@ -9947,7 +9944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>589</v>
       </c>
@@ -9973,7 +9970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>590</v>
       </c>
@@ -9999,7 +9996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>591</v>
       </c>
@@ -10025,7 +10022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>592</v>
       </c>
@@ -10051,7 +10048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>593</v>
       </c>
@@ -10077,7 +10074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>595</v>
       </c>
@@ -10103,7 +10100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>597</v>
       </c>
@@ -10129,7 +10126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>598</v>
       </c>
@@ -10155,7 +10152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>599</v>
       </c>
@@ -10181,7 +10178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>601</v>
       </c>
@@ -10207,7 +10204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>602</v>
       </c>
@@ -10233,7 +10230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>604</v>
       </c>
@@ -10259,7 +10256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>607</v>
       </c>
@@ -10285,7 +10282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>609</v>
       </c>
@@ -10311,7 +10308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>610</v>
       </c>
@@ -10337,7 +10334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>612</v>
       </c>
@@ -10363,7 +10360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>613</v>
       </c>
@@ -10389,7 +10386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>614</v>
       </c>
@@ -10415,7 +10412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>616</v>
       </c>
@@ -10441,7 +10438,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>618</v>
       </c>
@@ -10467,7 +10464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>619</v>
       </c>
@@ -10493,7 +10490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>620</v>
       </c>
@@ -10519,7 +10516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>621</v>
       </c>
@@ -10545,7 +10542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>622</v>
       </c>
@@ -10571,7 +10568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>623</v>
       </c>
@@ -10597,7 +10594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>624</v>
       </c>
@@ -10623,7 +10620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>625</v>
       </c>
@@ -10649,7 +10646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>628</v>
       </c>
@@ -10675,7 +10672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>629</v>
       </c>
@@ -10701,7 +10698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>631</v>
       </c>
@@ -10727,7 +10724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>634</v>
       </c>
@@ -10753,7 +10750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>637</v>
       </c>
@@ -10779,7 +10776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>638</v>
       </c>
@@ -10805,7 +10802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>640</v>
       </c>
@@ -10831,7 +10828,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>642</v>
       </c>
@@ -10857,7 +10854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>644</v>
       </c>
@@ -10883,7 +10880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>645</v>
       </c>
@@ -10909,7 +10906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>646</v>
       </c>
@@ -10935,7 +10932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>647</v>
       </c>
@@ -10961,7 +10958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>650</v>
       </c>
@@ -10987,7 +10984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>652</v>
       </c>
@@ -11013,7 +11010,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>654</v>
       </c>
@@ -11039,7 +11036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>656</v>
       </c>
@@ -11065,7 +11062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>658</v>
       </c>
@@ -11091,7 +11088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>660</v>
       </c>
@@ -11117,7 +11114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>663</v>
       </c>
@@ -11143,7 +11140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>667</v>
       </c>
@@ -11169,7 +11166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>670</v>
       </c>
@@ -11195,7 +11192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>672</v>
       </c>
@@ -11221,7 +11218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>674</v>
       </c>
@@ -11247,7 +11244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>676</v>
       </c>
@@ -11273,7 +11270,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>678</v>
       </c>
@@ -11299,7 +11296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>680</v>
       </c>
@@ -11325,7 +11322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>681</v>
       </c>
@@ -11351,7 +11348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>682</v>
       </c>
@@ -11377,7 +11374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>683</v>
       </c>
@@ -11403,7 +11400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>684</v>
       </c>
@@ -11429,7 +11426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>685</v>
       </c>
@@ -11455,7 +11452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>686</v>
       </c>
@@ -11481,7 +11478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>687</v>
       </c>
@@ -11507,7 +11504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>688</v>
       </c>
@@ -11533,7 +11530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>689</v>
       </c>
@@ -11559,7 +11556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>691</v>
       </c>
@@ -11585,7 +11582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>692</v>
       </c>
@@ -11611,7 +11608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>694</v>
       </c>
@@ -11637,7 +11634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>696</v>
       </c>
@@ -11663,7 +11660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>698</v>
       </c>
@@ -11689,7 +11686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>700</v>
       </c>
@@ -11715,7 +11712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>701</v>
       </c>
@@ -11741,7 +11738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>702</v>
       </c>
@@ -11767,7 +11764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>703</v>
       </c>
@@ -11793,7 +11790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>704</v>
       </c>
@@ -11819,7 +11816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>705</v>
       </c>
@@ -11845,7 +11842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>706</v>
       </c>
@@ -11871,7 +11868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>707</v>
       </c>
@@ -11897,7 +11894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>709</v>
       </c>
@@ -11923,7 +11920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>711</v>
       </c>
@@ -11949,7 +11946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>713</v>
       </c>
@@ -11975,7 +11972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>715</v>
       </c>
@@ -12001,7 +11998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>716</v>
       </c>
@@ -12027,7 +12024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>717</v>
       </c>
@@ -12053,7 +12050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>718</v>
       </c>
@@ -12079,7 +12076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>719</v>
       </c>
@@ -12105,7 +12102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>720</v>
       </c>
@@ -12131,7 +12128,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>721</v>
       </c>
@@ -12157,7 +12154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>722</v>
       </c>
@@ -12183,7 +12180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>723</v>
       </c>
@@ -12209,7 +12206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>725</v>
       </c>
@@ -12235,7 +12232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>727</v>
       </c>
@@ -12261,7 +12258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>728</v>
       </c>
@@ -12287,7 +12284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>731</v>
       </c>
@@ -12313,7 +12310,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>733</v>
       </c>
@@ -12339,7 +12336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>734</v>
       </c>
@@ -12365,7 +12362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>735</v>
       </c>
@@ -12391,7 +12388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>736</v>
       </c>
@@ -12417,7 +12414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>738</v>
       </c>
@@ -12443,7 +12440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>739</v>
       </c>
@@ -12469,7 +12466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>741</v>
       </c>
@@ -12495,7 +12492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>742</v>
       </c>
@@ -12521,7 +12518,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>743</v>
       </c>
@@ -12547,7 +12544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>744</v>
       </c>
@@ -12573,7 +12570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>745</v>
       </c>
@@ -12599,7 +12596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>746</v>
       </c>
@@ -12625,7 +12622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>748</v>
       </c>
@@ -12651,7 +12648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>749</v>
       </c>
@@ -12677,7 +12674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>750</v>
       </c>
@@ -12703,7 +12700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>751</v>
       </c>
@@ -12729,7 +12726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>752</v>
       </c>
@@ -12755,7 +12752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>754</v>
       </c>
@@ -12781,7 +12778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>756</v>
       </c>
@@ -12807,7 +12804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>757</v>
       </c>
@@ -12833,7 +12830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>758</v>
       </c>
@@ -12859,7 +12856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>759</v>
       </c>
@@ -12885,7 +12882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>760</v>
       </c>
@@ -12911,7 +12908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>762</v>
       </c>
@@ -12937,7 +12934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>765</v>
       </c>
@@ -12963,7 +12960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>766</v>
       </c>
@@ -12989,7 +12986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>768</v>
       </c>
@@ -13015,7 +13012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>769</v>
       </c>
@@ -13041,7 +13038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>770</v>
       </c>
@@ -13067,7 +13064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>771</v>
       </c>
@@ -13093,7 +13090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>772</v>
       </c>
@@ -13119,7 +13116,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>773</v>
       </c>
@@ -13145,7 +13142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>774</v>
       </c>
@@ -13171,7 +13168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>776</v>
       </c>
@@ -13197,7 +13194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>777</v>
       </c>
@@ -13213,6 +13210,9 @@
       <c r="E154" t="s">
         <v>568</v>
       </c>
+      <c r="F154" t="s">
+        <v>9</v>
+      </c>
       <c r="G154">
         <v>180</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>778</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>779</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>780</v>
       </c>
@@ -13295,12 +13295,12 @@
         <v>120</v>
       </c>
       <c r="H157" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>781</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>782</v>
       </c>
       <c r="B158" t="s">
         <v>212</v>
@@ -13324,9 +13324,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B159" t="s">
         <v>635</v>
@@ -13350,9 +13350,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B160" t="s">
         <v>123</v>
@@ -13376,15 +13376,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B161" t="s">
         <v>220</v>
       </c>
       <c r="C161" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D161" t="s">
         <v>36</v>
@@ -13402,15 +13402,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B162" t="s">
         <v>293</v>
       </c>
       <c r="C162" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D162" t="s">
         <v>184</v>
@@ -13425,12 +13425,12 @@
         <v>90</v>
       </c>
       <c r="H162" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B163" t="s">
         <v>603</v>
@@ -13454,15 +13454,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B164" t="s">
         <v>664</v>
       </c>
       <c r="C164" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D164" t="s">
         <v>8</v>
@@ -13477,12 +13477,12 @@
         <v>90</v>
       </c>
       <c r="H164" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B165" t="s">
         <v>577</v>
@@ -13506,9 +13506,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B166" t="s">
         <v>580</v>
@@ -13532,9 +13532,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B167" t="s">
         <v>321</v>
@@ -13558,15 +13558,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B168" t="s">
         <v>635</v>
       </c>
       <c r="C168" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D168" t="s">
         <v>8</v>
@@ -13584,9 +13584,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B169" t="s">
         <v>123</v>
@@ -13610,9 +13610,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B170" t="s">
         <v>220</v>
@@ -13636,15 +13636,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B171" t="s">
         <v>293</v>
       </c>
       <c r="C171" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D171" t="s">
         <v>547</v>
@@ -13662,9 +13662,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B172" t="s">
         <v>166</v>
@@ -13688,15 +13688,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B173" t="s">
         <v>554</v>
       </c>
       <c r="C173" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D173" t="s">
         <v>547</v>
@@ -13714,9 +13714,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B174" t="s">
         <v>140</v>
@@ -13740,9 +13740,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B175" t="s">
         <v>664</v>
@@ -13766,9 +13766,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B176" t="s">
         <v>557</v>
@@ -13792,15 +13792,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B177" t="s">
         <v>611</v>
       </c>
       <c r="C177" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D177" t="s">
         <v>184</v>
